--- a/biology/Botanique/Rorippa_palustris/Rorippa_palustris.xlsx
+++ b/biology/Botanique/Rorippa_palustris/Rorippa_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rorippa palustris, le Cresson des marais,  Rorippe des marais ou Rorippe faux-cresson est une espèce de plantes herbacées de la famille des Brassicaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France, elle est classée comme non préoccupante [3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale par l'UICN. En Europe et en France, elle est classée comme non préoccupante . 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (1 novembre 2021)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (1 novembre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Rorippa palustris subsp. fernaldiana (Butters &amp; Abbe) Jonsell
 Rorippa palustris subsp. glabra (O.E. Schulz) Stuckey
 Rorippa palustris subsp. hispida (Desv.) Jonsell
